--- a/biology/Zoologie/Dickcissel_d'Amérique/Dickcissel_d'Amérique.xlsx
+++ b/biology/Zoologie/Dickcissel_d'Amérique/Dickcissel_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dickcissel_d%27Am%C3%A9rique</t>
+          <t>Dickcissel_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spiza americana
 Le Dickcissel d'Amérique (Spiza americana) est une espèce de passereaux de la famille des Cardinalidae, seul représentant du genre Spiza.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dickcissel_d%27Am%C3%A9rique</t>
+          <t>Dickcissel_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau d'Amérique du Nord migre en Amérique du Sud. Il a été aperçu jusqu'en Guyane française en 2016, ce qui le fait rentrer dans la liste des oiseaux de ce département d'outre-mer[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau d'Amérique du Nord migre en Amérique du Sud. Il a été aperçu jusqu'en Guyane française en 2016, ce qui le fait rentrer dans la liste des oiseaux de ce département d'outre-mer. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dickcissel_d%27Am%C3%A9rique</t>
+          <t>Dickcissel_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son dos est brun avec des rayures noire tandis que son ventre est pâle. Ses ailes sont noires. Sa poitrine est jaune avec une tache noire.
-Il porte une couronne grise. Ses joues sont également grises. Il a une moustache et une ligne jaune au-dessus des yeux. Il a une tache rousse sur les épaules. Son menton est blanc, et le bec est pâle, large et pointu[2].
+Il porte une couronne grise. Ses joues sont également grises. Il a une moustache et une ligne jaune au-dessus des yeux. Il a une tache rousse sur les épaules. Son menton est blanc, et le bec est pâle, large et pointu.
 </t>
         </is>
       </c>
